--- a/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_icedies.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_icedies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364929C3-5ED7-9948-ACDE-D15281510BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCA3B5-D00F-8D46-9859-F49D001ED86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Enables the model to not use the capacity if required.</t>
   </si>
   <si>
-    <t>Maximum observed</t>
-  </si>
-  <si>
     <t>Mpkm/Mvkm</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>diesel</t>
   </si>
   <si>
-    <t>litre_diesel/Mvkm</t>
-  </si>
-  <si>
     <t>https://iea-etsap.org/E-TechDS/PDF/T02_Adv_diesel_eng-GS-gct-AD-1cnr_gs.pdf</t>
   </si>
   <si>
@@ -281,10 +275,16 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>Average of yearly total Mvkm/total car units. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+    <t>Full usage of available cars.</t>
   </si>
   <si>
-    <t>Full usage of available cars.</t>
+    <t>Maximum observed*1.1</t>
+  </si>
+  <si>
+    <t>Average hourly travel per vehicle. Obtained via: total_Mvkm/total_car_units/8760. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+  </si>
+  <si>
+    <t>Mvkm/litre_diesel</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -845,22 +845,22 @@
         <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>57000</v>
+        <v>1.7543859649122806E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -883,7 +883,7 @@
         <v>1.743955352</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -900,7 +900,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -909,17 +909,17 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>127899</v>
+        <v>140689</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -927,19 +927,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.2886737000000001E-2</v>
+        <v>1.4710886986301371E-6</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -966,16 +966,16 @@
         <v>152.19999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -983,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1001,10 +1001,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1046,10 +1046,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>52</v>
@@ -1073,7 +1073,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1105,13 +1105,13 @@
         <v>1129.9755253259293</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1134,13 +1134,13 @@
         <v>1170.9218634550869</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1163,13 +1163,13 @@
         <v>1168.2494933120424</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1192,13 +1192,13 @@
         <v>1164.6427196549778</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1221,13 +1221,13 @@
         <v>1173.7711921575155</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1250,13 +1250,13 @@
         <v>1223.207721640264</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1264,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1279,13 +1279,13 @@
         <v>1280.7266065018687</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1308,13 +1308,13 @@
         <v>1350.2454146774974</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
         <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1337,13 +1337,13 @@
         <v>1447.6042018034059</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1366,13 +1366,13 @@
         <v>1587.6915686107911</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1395,13 +1395,13 @@
         <v>1825.2170958059621</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1424,13 +1424,13 @@
         <v>2190.6480883864706</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1453,13 +1453,13 @@
         <v>2698.0030699925619</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1482,13 +1482,13 @@
         <v>3302.7844726170274</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
         <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1511,13 +1511,13 @@
         <v>4016.8722326931957</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1540,13 +1540,13 @@
         <v>4746.0576685498172</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1569,13 +1569,13 @@
         <v>5592.1359731691291</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1598,13 +1598,13 @@
         <v>6469.0286814615556</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1627,13 +1627,13 @@
         <v>7464.1885253802502</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1656,13 +1656,13 @@
         <v>8497.4773192505727</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
         <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1685,13 +1685,13 @@
         <v>9450.0694526854859</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1714,13 +1714,13 @@
         <v>10479.786816014717</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
         <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1743,13 +1743,13 @@
         <v>11806.178661346763</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1772,13 +1772,13 @@
         <v>13125.601931000234</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1786,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1801,13 +1801,13 @@
         <v>14273.905608375571</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" t="s">
         <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1830,13 +1830,13 @@
         <v>15434.222950357112</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
         <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1859,13 +1859,13 @@
         <v>16497.606718662941</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J43" t="s">
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1888,13 +1888,13 @@
         <v>17323.194628824091</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
         <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1917,13 +1917,13 @@
         <v>17733.163534191695</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>38</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1946,13 +1946,13 @@
         <v>17904.821729125928</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="L46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1975,16 +1975,16 @@
         <v>79087</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2007,16 +2007,16 @@
         <v>81838</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2039,16 +2039,16 @@
         <v>83638</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2071,16 +2071,16 @@
         <v>85695</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2103,16 +2103,16 @@
         <v>90741</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2120,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -2135,16 +2135,16 @@
         <v>95578</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,7 +2152,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2167,16 +2167,16 @@
         <v>100405</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2184,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2199,16 +2199,16 @@
         <v>105709</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2231,16 +2231,16 @@
         <v>112736</v>
       </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2263,16 +2263,16 @@
         <v>123969</v>
       </c>
       <c r="H56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2280,7 +2280,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -2295,16 +2295,16 @@
         <v>141862</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -2327,16 +2327,16 @@
         <v>172096</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2359,16 +2359,16 @@
         <v>213184</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2391,16 +2391,16 @@
         <v>261987</v>
       </c>
       <c r="H60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2423,16 +2423,16 @@
         <v>319905</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J61" t="s">
         <v>44</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2455,16 +2455,16 @@
         <v>381189</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2487,16 +2487,16 @@
         <v>450992</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -2519,16 +2519,16 @@
         <v>524614</v>
       </c>
       <c r="H64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J64" t="s">
         <v>44</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -2551,16 +2551,16 @@
         <v>596480</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2583,16 +2583,16 @@
         <v>666089</v>
       </c>
       <c r="H66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2600,7 +2600,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2615,16 +2615,16 @@
         <v>739112</v>
       </c>
       <c r="H67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -2647,16 +2647,16 @@
         <v>827094</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2679,16 +2679,16 @@
         <v>934084</v>
       </c>
       <c r="H69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2696,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -2711,16 +2711,16 @@
         <v>1035843</v>
       </c>
       <c r="H70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -2743,16 +2743,16 @@
         <v>1123676</v>
       </c>
       <c r="H71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,7 +2760,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -2775,16 +2775,16 @@
         <v>1214075</v>
       </c>
       <c r="H72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -2807,16 +2807,16 @@
         <v>1291500</v>
       </c>
       <c r="H73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2839,16 +2839,16 @@
         <v>1346938</v>
       </c>
       <c r="H74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -2871,16 +2871,16 @@
         <v>1374246</v>
       </c>
       <c r="H75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -2903,16 +2903,16 @@
         <v>1382645</v>
       </c>
       <c r="H76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -2935,7 +2935,7 @@
         <v>8479</v>
       </c>
       <c r="H77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
@@ -2944,7 +2944,7 @@
         <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2952,7 +2952,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         <v>7170</v>
       </c>
       <c r="H78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
@@ -2976,7 +2976,7 @@
         <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2999,7 +2999,7 @@
         <v>7997</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
@@ -3008,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3016,7 +3016,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -3031,7 +3031,7 @@
         <v>8375</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J80" t="s">
         <v>45</v>
@@ -3040,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>11786</v>
       </c>
       <c r="H81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J81" t="s">
         <v>45</v>
@@ -3072,7 +3072,7 @@
         <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3095,7 +3095,7 @@
         <v>10696</v>
       </c>
       <c r="H82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
         <v>45</v>
@@ -3104,7 +3104,7 @@
         <v>41</v>
       </c>
       <c r="L82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3112,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         <v>12601</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J83" t="s">
         <v>45</v>
@@ -3136,7 +3136,7 @@
         <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -3159,7 +3159,7 @@
         <v>13428</v>
       </c>
       <c r="H84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
@@ -3168,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -3191,7 +3191,7 @@
         <v>16632</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
@@ -3200,7 +3200,7 @@
         <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -3223,7 +3223,7 @@
         <v>20719</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
@@ -3232,7 +3232,7 @@
         <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -3255,7 +3255,7 @@
         <v>28983</v>
       </c>
       <c r="H87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
@@ -3264,7 +3264,7 @@
         <v>41</v>
       </c>
       <c r="L87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         <v>41716</v>
       </c>
       <c r="H88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
@@ -3296,7 +3296,7 @@
         <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3304,7 +3304,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3319,7 +3319,7 @@
         <v>52097</v>
       </c>
       <c r="H89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
@@ -3328,7 +3328,7 @@
         <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,7 +3336,7 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -3351,7 +3351,7 @@
         <v>57912</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
         <v>45</v>
@@ -3360,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -3383,7 +3383,7 @@
         <v>69280</v>
       </c>
       <c r="H91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J91" t="s">
         <v>45</v>
@@ -3392,7 +3392,7 @@
         <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -3415,16 +3415,16 @@
         <v>74114</v>
       </c>
       <c r="H92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3432,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -3447,16 +3447,16 @@
         <v>80857</v>
       </c>
       <c r="H93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J93" t="s">
         <v>44</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3464,7 +3464,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -3479,16 +3479,16 @@
         <v>92333</v>
       </c>
       <c r="H94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J94" t="s">
         <v>44</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3511,16 +3511,16 @@
         <v>93366</v>
       </c>
       <c r="H95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3543,16 +3543,16 @@
         <v>78755</v>
       </c>
       <c r="H96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -3575,16 +3575,16 @@
         <v>90547</v>
       </c>
       <c r="H97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3607,16 +3607,16 @@
         <v>109324</v>
       </c>
       <c r="H98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3624,7 +3624,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -3639,16 +3639,16 @@
         <v>124911</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J99" t="s">
         <v>44</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3671,16 +3671,16 @@
         <v>115656</v>
       </c>
       <c r="H100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
         <v>44</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -3703,16 +3703,16 @@
         <v>113304</v>
       </c>
       <c r="H101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3735,16 +3735,16 @@
         <v>127899</v>
       </c>
       <c r="H102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -3767,16 +3767,16 @@
         <v>125595</v>
       </c>
       <c r="H103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -3799,16 +3799,16 @@
         <v>113848</v>
       </c>
       <c r="H104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J104" t="s">
         <v>44</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3816,7 +3816,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -3831,16 +3831,16 @@
         <v>90360</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -3863,16 +3863,16 @@
         <v>79461</v>
       </c>
       <c r="H106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -3897,7 +3897,7 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -3912,7 +3912,7 @@
         <v>4419</v>
       </c>
       <c r="H108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
@@ -3926,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -3941,7 +3941,7 @@
         <v>6197</v>
       </c>
       <c r="H109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
@@ -3955,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3970,7 +3970,7 @@
         <v>6318</v>
       </c>
       <c r="H110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J110" t="s">
         <v>38</v>
@@ -3984,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -3999,7 +3999,7 @@
         <v>6740</v>
       </c>
       <c r="H111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J111" t="s">
         <v>38</v>
@@ -4013,7 +4013,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -4028,7 +4028,7 @@
         <v>5859</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J112" t="s">
         <v>38</v>
@@ -4042,7 +4042,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -4057,7 +4057,7 @@
         <v>7774</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J113" t="s">
         <v>38</v>
@@ -4071,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -4086,7 +4086,7 @@
         <v>8124</v>
       </c>
       <c r="H114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J114" t="s">
         <v>38</v>
@@ -4100,7 +4100,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -4115,7 +4115,7 @@
         <v>9605</v>
       </c>
       <c r="H115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J115" t="s">
         <v>38</v>
@@ -4129,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -4144,7 +4144,7 @@
         <v>9486</v>
       </c>
       <c r="H116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J116" t="s">
         <v>38</v>
@@ -4158,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
@@ -4173,7 +4173,7 @@
         <v>11090</v>
       </c>
       <c r="H117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J117" t="s">
         <v>38</v>
@@ -4187,7 +4187,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4202,7 +4202,7 @@
         <v>11482</v>
       </c>
       <c r="H118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J118" t="s">
         <v>38</v>
@@ -4216,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -4231,7 +4231,7 @@
         <v>11009</v>
       </c>
       <c r="H119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J119" t="s">
         <v>38</v>
@@ -4245,7 +4245,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -4260,7 +4260,7 @@
         <v>9109</v>
       </c>
       <c r="H120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J120" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -4289,7 +4289,7 @@
         <v>11362</v>
       </c>
       <c r="H121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J121" t="s">
         <v>38</v>
@@ -4303,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -4318,7 +4318,7 @@
         <v>12830</v>
       </c>
       <c r="H122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J122" t="s">
         <v>38</v>
@@ -4332,7 +4332,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
@@ -4347,7 +4347,7 @@
         <v>11054</v>
       </c>
       <c r="H123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J123" t="s">
         <v>38</v>
@@ -4361,7 +4361,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -4376,7 +4376,7 @@
         <v>18711</v>
       </c>
       <c r="H124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J124" t="s">
         <v>38</v>
@@ -4390,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4405,7 +4405,7 @@
         <v>21500</v>
       </c>
       <c r="H125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J125" t="s">
         <v>38</v>
@@ -4419,7 +4419,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
@@ -4434,7 +4434,7 @@
         <v>9146</v>
       </c>
       <c r="H126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J126" t="s">
         <v>38</v>
@@ -4448,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -4463,7 +4463,7 @@
         <v>17524</v>
       </c>
       <c r="H127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J127" t="s">
         <v>38</v>
@@ -4477,7 +4477,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -4492,7 +4492,7 @@
         <v>21342</v>
       </c>
       <c r="H128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J128" t="s">
         <v>38</v>
@@ -4506,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -4521,7 +4521,7 @@
         <v>17921</v>
       </c>
       <c r="H129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J129" t="s">
         <v>38</v>
@@ -4535,7 +4535,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
@@ -4550,7 +4550,7 @@
         <v>13897</v>
       </c>
       <c r="H130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J130" t="s">
         <v>38</v>
@@ -4564,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -4579,7 +4579,7 @@
         <v>25471</v>
       </c>
       <c r="H131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J131" t="s">
         <v>38</v>
@@ -4593,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -4608,7 +4608,7 @@
         <v>37500</v>
       </c>
       <c r="H132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J132" t="s">
         <v>38</v>
@@ -4622,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -4637,7 +4637,7 @@
         <v>48170</v>
       </c>
       <c r="H133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J133" t="s">
         <v>38</v>
@@ -4651,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -4666,7 +4666,7 @@
         <v>58410</v>
       </c>
       <c r="H134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J134" t="s">
         <v>38</v>
@@ -4680,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
@@ -4695,7 +4695,7 @@
         <v>63052</v>
       </c>
       <c r="H135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J135" t="s">
         <v>38</v>
@@ -4709,7 +4709,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -4724,7 +4724,7 @@
         <v>71062</v>
       </c>
       <c r="H136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J136" t="s">
         <v>38</v>
@@ -4738,7 +4738,7 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -4755,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -4772,7 +4772,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -4789,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -4806,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -4823,7 +4823,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -4840,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -4857,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -4874,7 +4874,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -4891,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -4908,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -4925,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -4942,7 +4942,7 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -4959,7 +4959,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -4976,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -4993,7 +4993,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -5010,7 +5010,7 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -5027,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -5044,7 +5044,7 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -5061,7 +5061,7 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -5078,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -5099,10 +5099,10 @@
         <v>42</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -5127,7 +5127,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -5144,7 +5144,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -5161,7 +5161,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -5178,7 +5178,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -5195,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -5212,7 +5212,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -5229,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -5246,7 +5246,7 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -5263,7 +5263,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -5280,7 +5280,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -5297,7 +5297,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -5331,7 +5331,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -5365,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -5382,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -5399,7 +5399,7 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
@@ -5416,7 +5416,7 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -5433,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
@@ -5450,7 +5450,7 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C178" t="s">
         <v>23</v>
@@ -5467,7 +5467,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -5484,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -5501,7 +5501,7 @@
         <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -5518,7 +5518,7 @@
         <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -5535,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C183" t="s">
         <v>23</v>
@@ -5552,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -5569,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -5586,7 +5586,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s">
         <v>23</v>
@@ -5603,7 +5603,7 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C187" t="s">
         <v>23</v>
@@ -5624,10 +5624,10 @@
         <v>42</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L187" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5635,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -5652,7 +5652,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C189" t="s">
         <v>23</v>
@@ -5669,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -5686,7 +5686,7 @@
         <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -5703,7 +5703,7 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -5737,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -5754,7 +5754,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -5771,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -5788,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -5805,7 +5805,7 @@
         <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
@@ -5822,7 +5822,7 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -5839,7 +5839,7 @@
         <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -5856,7 +5856,7 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
@@ -5873,7 +5873,7 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -5890,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
@@ -5907,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -5924,7 +5924,7 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -5941,7 +5941,7 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
@@ -5958,7 +5958,7 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
@@ -5975,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
@@ -5992,7 +5992,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
@@ -6009,7 +6009,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -6026,7 +6026,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -6043,7 +6043,7 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
@@ -6077,7 +6077,7 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
@@ -6094,7 +6094,7 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -6111,7 +6111,7 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
@@ -6128,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -6144,16 +6144,16 @@
         <v>40000</v>
       </c>
       <c r="H217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J217" t="s">
         <v>42</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L217" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6161,7 +6161,7 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
@@ -6178,7 +6178,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -6195,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
@@ -6212,7 +6212,7 @@
         <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
@@ -6229,7 +6229,7 @@
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
@@ -6246,7 +6246,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
@@ -6263,7 +6263,7 @@
         <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
@@ -6280,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
@@ -6297,7 +6297,7 @@
         <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
@@ -6314,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -6331,7 +6331,7 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6360,7 +6360,7 @@
         <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -6389,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C230" t="s">
         <v>25</v>
@@ -6418,7 +6418,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C231" t="s">
         <v>25</v>
@@ -6447,7 +6447,7 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -6476,7 +6476,7 @@
         <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C233" t="s">
         <v>25</v>
@@ -6505,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6534,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6563,7 +6563,7 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C236" t="s">
         <v>25</v>
@@ -6592,7 +6592,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C237" t="s">
         <v>25</v>
@@ -6621,7 +6621,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C238" t="s">
         <v>25</v>
@@ -6650,7 +6650,7 @@
         <v>15</v>
       </c>
       <c r="B239" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C239" t="s">
         <v>25</v>
@@ -6679,7 +6679,7 @@
         <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C240" t="s">
         <v>25</v>
@@ -6708,7 +6708,7 @@
         <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C241" t="s">
         <v>25</v>
@@ -6737,7 +6737,7 @@
         <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C242" t="s">
         <v>25</v>
@@ -6766,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C243" t="s">
         <v>25</v>
@@ -6795,7 +6795,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
@@ -6824,7 +6824,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C245" t="s">
         <v>25</v>
@@ -6853,7 +6853,7 @@
         <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6882,7 +6882,7 @@
         <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
@@ -6911,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C248" t="s">
         <v>25</v>
@@ -6940,7 +6940,7 @@
         <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6969,7 +6969,7 @@
         <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
@@ -6998,7 +6998,7 @@
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -7027,7 +7027,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C253" t="s">
         <v>25</v>
@@ -7085,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C254" t="s">
         <v>25</v>
@@ -7114,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C255" t="s">
         <v>25</v>
@@ -7143,7 +7143,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
@@ -7172,7 +7172,7 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7226,7 +7226,7 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7253,7 +7253,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7280,7 +7280,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7334,7 +7334,7 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7361,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7442,7 +7442,7 @@
         <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7469,7 +7469,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7496,7 +7496,7 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7523,7 +7523,7 @@
         <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
         <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C272" t="s">
         <v>26</v>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -7658,7 +7658,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -7685,7 +7685,7 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -7712,7 +7712,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -7739,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C278" t="s">
         <v>26</v>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C279" t="s">
         <v>26</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -7793,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -7847,7 +7847,7 @@
         <v>15</v>
       </c>
       <c r="B282" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C282" t="s">
         <v>26</v>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -7874,7 +7874,7 @@
         <v>15</v>
       </c>
       <c r="B283" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C283" t="s">
         <v>26</v>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -7901,7 +7901,7 @@
         <v>15</v>
       </c>
       <c r="B284" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C284" t="s">
         <v>26</v>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -7928,7 +7928,7 @@
         <v>15</v>
       </c>
       <c r="B285" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -7955,7 +7955,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C286" t="s">
         <v>26</v>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -7982,7 +7982,7 @@
         <v>15</v>
       </c>
       <c r="B287" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -8008,7 +8008,7 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -8034,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -8060,7 +8060,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -8086,7 +8086,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -8112,7 +8112,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -8138,7 +8138,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -8164,7 +8164,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -8190,7 +8190,7 @@
         <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -8216,7 +8216,7 @@
         <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -8242,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="B297" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -8268,7 +8268,7 @@
         <v>15</v>
       </c>
       <c r="B298" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -8294,7 +8294,7 @@
         <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C299" t="s">
         <v>27</v>
@@ -8320,7 +8320,7 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C300" t="s">
         <v>27</v>
@@ -8346,7 +8346,7 @@
         <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C301" t="s">
         <v>27</v>
@@ -8372,7 +8372,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -8398,7 +8398,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -8424,7 +8424,7 @@
         <v>15</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -8450,7 +8450,7 @@
         <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -8476,7 +8476,7 @@
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C306" t="s">
         <v>27</v>
@@ -8502,7 +8502,7 @@
         <v>15</v>
       </c>
       <c r="B307" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -8528,7 +8528,7 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -8554,7 +8554,7 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -8580,7 +8580,7 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -8606,7 +8606,7 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -8632,7 +8632,7 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -8658,7 +8658,7 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -8684,7 +8684,7 @@
         <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C314" t="s">
         <v>27</v>
@@ -8710,7 +8710,7 @@
         <v>15</v>
       </c>
       <c r="B315" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -8736,7 +8736,7 @@
         <v>15</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
